--- a/Boat_to_map.xlsx
+++ b/Boat_to_map.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="28160" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -471,6 +471,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
